--- a/NformTester/NformTester/Keywordscripts/900.10.020_DashboardDisplay.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.10.020_DashboardDisplay.xlsx
@@ -1353,7 +1353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8360" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8360" uniqueCount="952">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4247,6 +4247,14 @@
   </si>
   <si>
     <t>Click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4783,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5909,7 +5917,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>895</v>
+        <v>951</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>19</v>
@@ -5933,7 +5941,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>895</v>
+        <v>950</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
@@ -5957,7 +5965,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>895</v>
+        <v>951</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>181</v>
@@ -5981,7 +5989,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>895</v>
+        <v>951</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
@@ -6005,7 +6013,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>891</v>
+        <v>951</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>946</v>

--- a/NformTester/NformTester/Keywordscripts/900.10.020_DashboardDisplay.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.10.020_DashboardDisplay.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16035" windowHeight="12720" tabRatio="388"/>
@@ -1348,12 +1348,12 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CM$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CM:$CM</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8360" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8370" uniqueCount="961">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4224,10 +4224,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_Trap$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4255,6 +4251,42 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Device</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4262,7 +4294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4301,6 +4333,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4331,6 +4364,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4423,7 +4464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4478,13 +4519,30 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4505,7 +4563,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4789,10 +4847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4803,6 +4861,7 @@
     <col min="5" max="5" width="34.375" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
     <col min="10" max="10" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4999,7 +5058,7 @@
         <v>894</v>
       </c>
       <c r="B7" s="14">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -5633,7 +5692,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -5644,48 +5703,52 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="4"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="1:14">
       <c r="C32" s="2">
         <v>31</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="4"/>
+      <c r="D32" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="N32" s="22"/>
     </row>
-    <row r="33" spans="3:14">
+    <row r="33" spans="3:14" ht="15">
       <c r="C33" s="2">
         <v>32</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>949</v>
-      </c>
+      <c r="D33" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -5699,41 +5762,41 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>942</v>
+        <v>895</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>877</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="9" t="s">
-        <v>943</v>
-      </c>
-      <c r="I34" s="9">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>944</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="11"/>
+      <c r="N34" s="4"/>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="2">
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>945</v>
+        <v>895</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="F35" s="2">
-        <v>10</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>948</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -5747,76 +5810,76 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>895</v>
+        <v>942</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+        <v>877</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>943</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="11" t="s">
-        <v>948</v>
-      </c>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="2">
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>895</v>
+        <v>944</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+        <v>945</v>
+      </c>
+      <c r="F37" s="2">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="11" t="s">
-        <v>948</v>
-      </c>
+      <c r="N37" s="4"/>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="2">
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>945</v>
+        <v>895</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="F38" s="2">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="4"/>
+      <c r="N38" s="11" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="39" spans="3:14">
       <c r="C39" s="2">
@@ -5829,21 +5892,19 @@
         <v>19</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="I39" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="11" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="40" spans="3:14">
@@ -5851,109 +5912,111 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>895</v>
+        <v>944</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="9"/>
+        <v>945</v>
+      </c>
+      <c r="F40" s="2">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="11" t="s">
-        <v>948</v>
-      </c>
+      <c r="N40" s="4"/>
     </row>
     <row r="41" spans="3:14">
       <c r="C41" s="2">
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>945</v>
+        <v>895</v>
       </c>
       <c r="E41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="F41" s="2">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="4"/>
+      <c r="N41" s="11" t="s">
+        <v>947</v>
+      </c>
     </row>
-    <row r="42" spans="3:14" ht="15">
+    <row r="42" spans="3:14">
       <c r="C42" s="2">
         <v>41</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="D42" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="11"/>
+      <c r="N42" s="11" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="43" spans="3:14">
       <c r="C43" s="2">
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="F43" s="2">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="11"/>
+      <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="3:14">
+    <row r="44" spans="3:14" ht="15">
       <c r="C44" s="2">
         <v>43</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="D44" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -5965,13 +6028,13 @@
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>951</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>181</v>
+        <v>950</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>941</v>
+        <v>25</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>2</v>
@@ -5989,18 +6052,18 @@
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="9"/>
+      <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -6013,57 +6076,63 @@
         <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>951</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="F47" s="2">
-        <v>5</v>
-      </c>
-      <c r="G47" s="2"/>
+        <v>950</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="4"/>
+      <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="3:14" ht="15">
+    <row r="48" spans="3:14">
       <c r="C48" s="2">
         <v>47</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="D48" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="9"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="4"/>
+      <c r="N48" s="11"/>
     </row>
     <row r="49" spans="3:14">
       <c r="C49" s="2">
         <v>48</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="D49" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="F49" s="2">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -6072,22 +6141,16 @@
       <c r="M49" s="2"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="3:14">
+    <row r="50" spans="3:14" ht="15">
       <c r="C50" s="2">
         <v>49</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="D50" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -6103,13 +6166,13 @@
       <c r="D51" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="G51" s="2" t="s">
+      <c r="E51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H51" s="2"/>
@@ -6127,18 +6190,16 @@
       <c r="D52" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>909</v>
-      </c>
+      <c r="E52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -6157,7 +6218,7 @@
         <v>695</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>254</v>
+        <v>696</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>2</v>
@@ -6174,19 +6235,21 @@
       <c r="C54" s="2">
         <v>53</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>915</v>
+      <c r="D54" s="6" t="s">
+        <v>895</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>299</v>
+        <v>696</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>909</v>
+      </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -6198,14 +6261,14 @@
       <c r="C55" s="2">
         <v>54</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>916</v>
+      <c r="D55" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>2</v>
@@ -6219,11 +6282,21 @@
       <c r="N55" s="4"/>
     </row>
     <row r="56" spans="3:14">
-      <c r="C56" s="2"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="C56" s="2">
+        <v>55</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -6233,11 +6306,21 @@
       <c r="N56" s="4"/>
     </row>
     <row r="57" spans="3:14">
-      <c r="C57" s="2"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="C57" s="2">
+        <v>56</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -6354,34 +6437,34 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="8"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="4"/>
     </row>
     <row r="66" spans="3:14">
       <c r="C66" s="2"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="8"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="4"/>
     </row>
     <row r="67" spans="3:14">
       <c r="C67" s="2"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="8"/>
@@ -6389,10 +6472,10 @@
     <row r="68" spans="3:14">
       <c r="C68" s="2"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="9"/>
+      <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="9"/>
+      <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -6403,10 +6486,10 @@
     <row r="69" spans="3:14">
       <c r="C69" s="2"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="9"/>
+      <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="9"/>
+      <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -6421,7 +6504,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
@@ -6449,7 +6532,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="9"/>
-      <c r="I72" s="7"/>
+      <c r="I72" s="9"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
@@ -6477,7 +6560,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
@@ -6519,7 +6602,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
@@ -6596,27 +6679,62 @@
       <c r="M82" s="7"/>
       <c r="N82" s="8"/>
     </row>
+    <row r="83" spans="3:14">
+      <c r="C83" s="2"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="8"/>
+    </row>
+    <row r="84" spans="3:14">
+      <c r="D84" s="6"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N82">
-    <cfRule type="cellIs" dxfId="1" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N84">
+    <cfRule type="cellIs" dxfId="3" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:F40 F48:F82 F36:F37 F46 F42:F44 F2:F34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:F42 F50:F84 F38:F39 F48 F44:F46 F2:F36">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45:D49 D51:D55 D58:D84 D8:D13 D15:D21 D23:D25 D6 D3:D4 D34:D43 D27:D30">
+      <formula1>"C,F,T,;"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G84">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D43:D47 D49:D53 D56:D82 D27:D30 D8:D13 D15:D21 D23:D25 D6 D3:D4 D32:D41">
-      <formula1>"C,F,T,;"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E84">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
